--- a/biology/Mycologie/Foire_de_la_truffe_blanche_d'Alba/Foire_de_la_truffe_blanche_d'Alba.xlsx
+++ b/biology/Mycologie/Foire_de_la_truffe_blanche_d'Alba/Foire_de_la_truffe_blanche_d'Alba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Foire_de_la_truffe_blanche_d%27Alba</t>
+          <t>Foire_de_la_truffe_blanche_d'Alba</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La foire de la truffe blanche d'Alba (fiera del tartufo) est un événement économique et traditionnel annuel qui se déroule à Alba à l'automne, mettant la truffe et le vin à l'honneur[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La foire de la truffe blanche d'Alba (fiera del tartufo) est un événement économique et traditionnel annuel qui se déroule à Alba à l'automne, mettant la truffe et le vin à l'honneur.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Foire_de_la_truffe_blanche_d%27Alba</t>
+          <t>Foire_de_la_truffe_blanche_d'Alba</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette foire internationale a lieu chaque année dans la ville d'Alba située au nord de l'Italie, dans le Piémont. Les festivités se déroulent sur plus d'un mois (entre octobre et novembre), même si elles ont principalement lieu les weekends. Un grand marché de la truffe blanche récoltée dans l'année est mis en place, avec des spectacles, de la musique, des séances de dégustation, une foire au vin[2]...
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette foire internationale a lieu chaque année dans la ville d'Alba située au nord de l'Italie, dans le Piémont. Les festivités se déroulent sur plus d'un mois (entre octobre et novembre), même si elles ont principalement lieu les weekends. Un grand marché de la truffe blanche récoltée dans l'année est mis en place, avec des spectacles, de la musique, des séances de dégustation, une foire au vin...
 En général, le 2e dimanche de novembre est organisée, au château-œnothèque de Grinzane Cavour, l'Asta Mondiale, vente aux enchères des plus belles truffes blanches de la région en connexion simultanée avec de grandes villes étrangères.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Foire_de_la_truffe_blanche_d%27Alba</t>
+          <t>Foire_de_la_truffe_blanche_d'Alba</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La foire de la truffe est une manifestation très connue et traditionnelle de la ville de Alba.
 Cette foire voit son origine dans les années 1920 lorsque, à l'occasion de la fête de la récolte du vin en 1928, Giacomo Morra propose de créer une exposition consacrée aux truffes.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Foire_de_la_truffe_blanche_d%27Alba</t>
+          <t>Foire_de_la_truffe_blanche_d'Alba</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,14 +596,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vente des truffes
-Le marché international des truffes représente le pivot de cette manifestation culturelle. C'est l'occasion de présenter le produit typique de la région. Les visiteurs y vont pour voir, toucher et acheter les truffes. Tous les produits sont exposés et contrôlés par une commission qui reste à disposition des clients pendant la foire[2].
+          <t>Vente des truffes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le marché international des truffes représente le pivot de cette manifestation culturelle. C'est l'occasion de présenter le produit typique de la région. Les visiteurs y vont pour voir, toucher et acheter les truffes. Tous les produits sont exposés et contrôlés par une commission qui reste à disposition des clients pendant la foire.
 À côté des truffes, les clients peuvent aussi trouver des dégustations gastronomiques typiques du territoire, dont le vin.
-Vinum
-Une autre fonction principale de cette foire est le Vinum, dégustation qui accueille 'un grand nombre de touristes[3].
-La dégustation des vins est l'occasion de proposer et de promouvoir la variété des vins produits sur le territoire.
-Grand marché
-Chaque année, à l'occasion de la foire de la truffe, la ville se retrouve entourée par des stands où les commerçants proposent aux clients des produits de toute variété : vêtements, chaussures, objets en tout genre, etc[2]..
 </t>
         </is>
       </c>
@@ -598,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Foire_de_la_truffe_blanche_d%27Alba</t>
+          <t>Foire_de_la_truffe_blanche_d'Alba</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,16 +629,131 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Activités principales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vinum</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une autre fonction principale de cette foire est le Vinum, dégustation qui accueille 'un grand nombre de touristes.
+La dégustation des vins est l'occasion de proposer et de promouvoir la variété des vins produits sur le territoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Foire_de_la_truffe_blanche_d'Alba</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_de_la_truffe_blanche_d%27Alba</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Activités principales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Grand marché</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque année, à l'occasion de la foire de la truffe, la ville se retrouve entourée par des stands où les commerçants proposent aux clients des produits de toute variété : vêtements, chaussures, objets en tout genre, etc..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Foire_de_la_truffe_blanche_d'Alba</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_de_la_truffe_blanche_d%27Alba</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Traditions ancestrales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Défilé médiéval
-Au cours des années, la fête internationale de la truffe blanche est devenue de plus en plus liée au territoire, à la culture et aux typicités historiques de la ville. C'est pour cela qu'en complément, la foire de la truffe propose une véritable représentation des habitudes, des habilles, et des typicités médiévales de la ville, avec un défilé que les Italiens appellent la sfilata[2].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Défilé médiéval</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours des années, la fête internationale de la truffe blanche est devenue de plus en plus liée au territoire, à la culture et aux typicités historiques de la ville. C'est pour cela qu'en complément, la foire de la truffe propose une véritable représentation des habitudes, des habilles, et des typicités médiévales de la ville, avec un défilé que les Italiens appellent la sfilata.
 Ce défilé a lieu le premier jour de la fête et le dernier.
-Course des ânes
-La course des ânes fait partie du défilé. La ville est divisé en différents bourgs d'où débutent différents défilés qui se retrouvent ensuite au cœur de la vile. Le défilé se termine avec la course des ânes : chaque bourg est représenté par un âne et l'âne gagnant la course donne la victoire à son bourg d'appartenance[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Foire_de_la_truffe_blanche_d'Alba</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_de_la_truffe_blanche_d%27Alba</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Traditions ancestrales</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Course des ânes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La course des ânes fait partie du défilé. La ville est divisé en différents bourgs d'où débutent différents défilés qui se retrouvent ensuite au cœur de la vile. Le défilé se termine avec la course des ânes : chaque bourg est représenté par un âne et l'âne gagnant la course donne la victoire à son bourg d'appartenance.
 </t>
         </is>
       </c>
